--- a/JP/2_あとがき.xlsx
+++ b/JP/2_あとがき.xlsx
@@ -14,21 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我个人认为FF14的高难度副本本身就像是一场舞台剧。</t>
-  </si>
-  <si>
-    <t>一个机制设计精妙、演出优秀的副本光是看别人的过本录像都会有一种赏心悦目的感觉。</t>
-  </si>
-  <si>
-    <t>八名玩家共同在正确的时间点做出正确的操作，再配合上副本的机制内容、演出、BGM等等，所有要素加在一起共同构成了一场完美的副本。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>夜明けのソナチネ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,22 +44,6 @@
   </si>
   <si>
     <t>Strange Circus ～黒い炎の少女～</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至于整个战斗流程的节奏设计我觉得其实可以类比一些歌曲的节奏变化：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较有代表性的或者说对我启发比较大的两首歌：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eclipse Parade - 葉月ゆら</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Кохання - Lazgi Malika</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -567,6 +537,48 @@
   </si>
   <si>
     <t>（この「罰」の考えは絶アレキの真心と絶アルテマの覚醒を参考させていただきました）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人的な考えですが、FF14の高難易度レイドは舞台劇に似てると思います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8人のプレイヤーが正確なタイミングで正確な動きをして、8人合わせてだれもミスしなければ完璧なクリアは必ずできる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>そしてギミック内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・演出・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BGMなどに加えてから完璧のレイドコンテンツになります。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>デザインの素晴らしいコンテンツはクリア動画を見るだけでも感服する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,14 +734,14 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1035,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1055,7 +1067,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1064,18 +1076,18 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="H3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -1090,77 +1102,77 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1169,289 +1181,276 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G24" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C26" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C31" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C33" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C34" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D35" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C36" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C39" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D40" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E41" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E42" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D43" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C45" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D46" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D47" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E48" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D49" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D52" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="J52" s="8"/>
     </row>
     <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="I53" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J53" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="J53" s="8"/>
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D54" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D56" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D57" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D58" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D60" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D63" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E64" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E65" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C67" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D68" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D69" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D70" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E71" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D73" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D75" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="10"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D77" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E78" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B88" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B89" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C92" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H93" s="3" t="s">
-        <v>15</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C88" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C89" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/JP/2_あとがき.xlsx
+++ b/JP/2_あとがき.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>夜明けのソナチネ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,12 +581,147 @@
     <t>その他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>代表的な2つの歌：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eclipse Parade - 葉月ゆら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前奏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主歌1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主歌1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副歌1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间奏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主歌2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主歌2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副歌2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主歌X-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副歌2</t>
+  </si>
+  <si>
+    <t>终奏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タイムライン：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テンポ（個人の感じによって数値化、数字高いほどテンションが高い：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パートごとに明確なテンポの変化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テンポの変化はそれほど明確ではない、ずっと中の上レベルのテンポを維持してる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コンテンツ全体のテンポ変化は実は歌をも参照してる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小ギミック連発のコンテンツに適する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（絶アルテマのタイタンフェーズ）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>複数の運動会ギミックがあるコンテンツに適する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（当コンテンツはこのパターンを参照）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主歌1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主歌2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主歌2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テンポ：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>櫻ノ詩 - はな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,8 +828,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,6 +845,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,7 +922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -739,8 +940,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -758,6 +974,2051 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Ecliplse Parade</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$96:$I$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1661552448"/>
+        <c:axId val="1661551360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1661552448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>時間</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.81491927820469479"/>
+              <c:y val="0.85251355311689547"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661551360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1661551360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>テンポ</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0514095229445572E-2"/>
+              <c:y val="0.15462270055315713"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661552448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>櫻</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>ノ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>詩</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$117:$I$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1816324784"/>
+        <c:axId val="1816318800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1816324784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>時間</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.80575695288597937"/>
+              <c:y val="0.84"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1816318800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1816318800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>テンポ</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.4275930416082803E-2"/>
+              <c:y val="0.2391755030621173"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1816324784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>385141</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>40584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1047,10 +3308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1083,11 +3344,11 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -1424,34 +3685,567 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+    <row r="83" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C85" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C86" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C88" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C89" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C91" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E92" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F93" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F95" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F96" s="11">
+        <v>0</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I96" s="18">
+        <v>3</v>
+      </c>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+    </row>
+    <row r="97" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F97" s="11">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I97" s="18">
+        <v>4</v>
+      </c>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18"/>
+      <c r="O97" s="18"/>
+      <c r="P97" s="18"/>
+    </row>
+    <row r="98" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F98" s="11">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I98" s="18">
+        <v>6</v>
+      </c>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+    </row>
+    <row r="99" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F99" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I99" s="18">
+        <v>9</v>
+      </c>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18"/>
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
+    </row>
+    <row r="100" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F100" s="11">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I100" s="18">
+        <v>3</v>
+      </c>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="18"/>
+      <c r="O100" s="18"/>
+      <c r="P100" s="18"/>
+    </row>
+    <row r="101" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F101" s="11">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101" s="18">
+        <v>4</v>
+      </c>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="18"/>
+      <c r="P101" s="18"/>
+    </row>
+    <row r="102" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F102" s="11">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I102" s="18">
+        <v>6</v>
+      </c>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+    </row>
+    <row r="103" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F103" s="11">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I103" s="18">
+        <v>10</v>
+      </c>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18"/>
+      <c r="O103" s="18"/>
+      <c r="P103" s="18"/>
+    </row>
+    <row r="104" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F104" s="11">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I104" s="18">
+        <v>7</v>
+      </c>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="18"/>
+      <c r="N104" s="18"/>
+      <c r="O104" s="18"/>
+      <c r="P104" s="18"/>
+    </row>
+    <row r="105" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F105" s="11">
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I105" s="18">
+        <v>3</v>
+      </c>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="18"/>
+      <c r="O105" s="18"/>
+      <c r="P105" s="18"/>
+    </row>
+    <row r="106" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F106" s="11">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I106" s="18">
+        <v>6</v>
+      </c>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18"/>
+      <c r="O106" s="18"/>
+      <c r="P106" s="18"/>
+    </row>
+    <row r="107" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F107" s="11">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="G107" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I107" s="18">
+        <v>9</v>
+      </c>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18"/>
+      <c r="O107" s="18"/>
+      <c r="P107" s="18"/>
+    </row>
+    <row r="108" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F108" s="11">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I108" s="18">
+        <v>10</v>
+      </c>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+    </row>
+    <row r="109" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F109" s="11">
+        <v>0.17152777777777775</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I109" s="18">
+        <v>3</v>
+      </c>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
+      <c r="N109" s="18"/>
+      <c r="O109" s="18"/>
+      <c r="P109" s="18"/>
+    </row>
+    <row r="110" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F110" s="11">
+        <v>0.18680555555555556</v>
+      </c>
+      <c r="G110"/>
+    </row>
+    <row r="112" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E112" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+    </row>
+    <row r="113" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E113" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F114" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F116" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="117" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F117" s="22">
+        <v>0</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I117" s="18">
+        <v>3</v>
+      </c>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="18"/>
+      <c r="M117" s="18"/>
+      <c r="N117" s="18"/>
+      <c r="O117" s="18"/>
+      <c r="P117" s="18"/>
+    </row>
+    <row r="118" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F118" s="22">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I118" s="18">
+        <v>6</v>
+      </c>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
+      <c r="O118" s="18"/>
+      <c r="P118" s="18"/>
+    </row>
+    <row r="119" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F119" s="22">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I119" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="18"/>
+      <c r="N119" s="18"/>
+      <c r="O119" s="18"/>
+      <c r="P119" s="18"/>
+    </row>
+    <row r="120" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F120" s="22">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I120" s="18">
+        <v>7</v>
+      </c>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="18"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="18"/>
+    </row>
+    <row r="121" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F121" s="22">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I121" s="18">
+        <v>3</v>
+      </c>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18"/>
+      <c r="M121" s="18"/>
+      <c r="N121" s="18"/>
+      <c r="O121" s="18"/>
+      <c r="P121" s="18"/>
+    </row>
+    <row r="122" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F122" s="22">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I122" s="18">
+        <v>6</v>
+      </c>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="18"/>
+      <c r="M122" s="18"/>
+      <c r="N122" s="18"/>
+      <c r="O122" s="18"/>
+      <c r="P122" s="18"/>
+    </row>
+    <row r="123" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F123" s="22">
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I123" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="18"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="18"/>
+    </row>
+    <row r="124" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F124" s="22">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="G124" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I124" s="18">
+        <v>7</v>
+      </c>
+      <c r="J124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="18"/>
+      <c r="N124" s="18"/>
+      <c r="O124" s="18"/>
+      <c r="P124" s="18"/>
+    </row>
+    <row r="125" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F125" s="22">
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="G125" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I125" s="18">
+        <v>7</v>
+      </c>
+      <c r="J125" s="18"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="18"/>
+      <c r="M125" s="18"/>
+      <c r="N125" s="18"/>
+      <c r="O125" s="18"/>
+      <c r="P125" s="18"/>
+    </row>
+    <row r="126" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F126" s="22">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I126" s="18">
+        <v>3</v>
+      </c>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="18"/>
+      <c r="O126" s="18"/>
+      <c r="P126" s="18"/>
+    </row>
+    <row r="127" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="I127" s="18"/>
+      <c r="J127" s="18"/>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18"/>
+      <c r="M127" s="18"/>
+      <c r="N127" s="18"/>
+      <c r="O127" s="18"/>
+      <c r="P127" s="18"/>
+    </row>
+    <row r="128" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="I128" s="18"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="18"/>
+      <c r="O128" s="18"/>
+      <c r="P128" s="18"/>
+    </row>
+    <row r="129" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I129" s="18"/>
+      <c r="J129" s="18"/>
+      <c r="K129" s="18"/>
+      <c r="L129" s="18"/>
+      <c r="M129" s="18"/>
+      <c r="N129" s="18"/>
+      <c r="O129" s="18"/>
+      <c r="P129" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1463,5 +4257,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/JP/2_あとがき.xlsx
+++ b/JP/2_あとがき.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
   <si>
     <t>夜明けのソナチネ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,9 +38,6 @@
   <si>
     <t>廻り廻れ壊れ崩れて　塵へと消える</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葉月ゆら（twitter：@yura_hatuki）</t>
   </si>
   <si>
     <t>Strange Circus ～黒い炎の少女～</t>
@@ -714,6 +711,14 @@
   </si>
   <si>
     <t>櫻ノ詩 - はな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ありがとうございますm(_ _)m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葉月ゆら（Twitter：@yura_hatuki）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -957,6 +962,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1069,7 +1077,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$96:$I$109</c:f>
+              <c:f>Sheet1!$I$97:$I$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1129,11 +1137,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1661552448"/>
-        <c:axId val="1661551360"/>
+        <c:axId val="2040015920"/>
+        <c:axId val="2040012656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1661552448"/>
+        <c:axId val="2040015920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,7 +1248,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1661551360"/>
+        <c:crossAx val="2040012656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1248,7 +1256,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1661551360"/>
+        <c:axId val="2040012656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,7 +1371,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1661552448"/>
+        <c:crossAx val="2040015920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1513,7 +1521,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$117:$I$126</c:f>
+              <c:f>Sheet1!$I$118:$I$127</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1561,11 +1569,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1816324784"/>
-        <c:axId val="1816318800"/>
+        <c:axId val="2040022448"/>
+        <c:axId val="105550656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1816324784"/>
+        <c:axId val="2040022448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1672,7 +1680,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1816318800"/>
+        <c:crossAx val="105550656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1680,7 +1688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1816318800"/>
+        <c:axId val="105550656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1803,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1816324784"/>
+        <c:crossAx val="2040022448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2962,13 +2970,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>385141</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>40584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>107674</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2992,13 +3000,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3308,10 +3316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P129"/>
+  <dimension ref="A1:P130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3320,7 +3328,7 @@
     <col min="3" max="3" width="9.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
     <col min="5" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="10.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="3" customWidth="1"/>
     <col min="11" max="12" width="9" style="3"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9" style="3"/>
@@ -3328,7 +3336,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3337,23 +3345,26 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+        <v>9</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -3362,425 +3373,425 @@
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C6" s="3" t="s">
-        <v>0</v>
+      <c r="B6" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>57</v>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C17" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G24" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
+      <c r="G25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="C27" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C29" s="3" t="s">
-        <v>25</v>
+      <c r="B29" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C31" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C33" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D35" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C36" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="6" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D41" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D40" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E41" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E42" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D44" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C46" s="19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D43" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C45" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D46" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D47" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D48" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E49" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E48" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D49" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C51" s="3" t="s">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D50" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C52" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D53" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D52" s="3" t="s">
+      <c r="I53" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="I54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D55" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="I53" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D54" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D56" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D57" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D58" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D60" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M60" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D59" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D61" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C62" s="3" t="s">
-        <v>46</v>
+      <c r="M61" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D63" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="C63" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
     </row>
     <row r="64" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E64" s="3" t="s">
-        <v>48</v>
+      <c r="D64" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E65" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C67" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D68" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="C68" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D69" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D70" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D71" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D74" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D76" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="9"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D78" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E71" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D73" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D75" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D77" s="3" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E79" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E78" s="7" t="s">
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C86" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C87" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C92" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B84" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C85" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C86" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B87" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B90" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C91" s="3" t="s">
+      <c r="E92" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E91" s="21" t="s">
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E93" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F94" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F96" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F97" s="11">
+        <v>0</v>
+      </c>
+      <c r="G97" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E92" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G92" s="10"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F93" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G93" s="10"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F95" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I95" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F96" s="11">
-        <v>0</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I96" s="18">
+      <c r="I97" s="18">
         <v>3</v>
-      </c>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="18"/>
-      <c r="P96" s="18"/>
-    </row>
-    <row r="97" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F97" s="11">
-        <v>1.5277777777777777E-2</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I97" s="18">
-        <v>4</v>
       </c>
       <c r="J97" s="18"/>
       <c r="K97" s="18"/>
@@ -3790,15 +3801,15 @@
       <c r="O97" s="18"/>
       <c r="P97" s="18"/>
     </row>
-    <row r="98" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F98" s="11">
-        <v>2.9166666666666664E-2</v>
-      </c>
-      <c r="G98" s="14" t="s">
-        <v>77</v>
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="I98" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J98" s="18"/>
       <c r="K98" s="18"/>
@@ -3808,15 +3819,15 @@
       <c r="O98" s="18"/>
       <c r="P98" s="18"/>
     </row>
-    <row r="99" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F99" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>78</v>
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="I99" s="18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J99" s="18"/>
       <c r="K99" s="18"/>
@@ -3826,15 +3837,15 @@
       <c r="O99" s="18"/>
       <c r="P99" s="18"/>
     </row>
-    <row r="100" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F100" s="11">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="G100" s="12" t="s">
-        <v>79</v>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="I100" s="18">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J100" s="18"/>
       <c r="K100" s="18"/>
@@ -3844,15 +3855,15 @@
       <c r="O100" s="18"/>
       <c r="P100" s="18"/>
     </row>
-    <row r="101" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F101" s="11">
-        <v>6.9444444444444434E-2</v>
-      </c>
-      <c r="G101" s="13" t="s">
-        <v>80</v>
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="I101" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J101" s="18"/>
       <c r="K101" s="18"/>
@@ -3862,15 +3873,15 @@
       <c r="O101" s="18"/>
       <c r="P101" s="18"/>
     </row>
-    <row r="102" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F102" s="11">
-        <v>8.1944444444444445E-2</v>
-      </c>
-      <c r="G102" s="14" t="s">
-        <v>81</v>
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="I102" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J102" s="18"/>
       <c r="K102" s="18"/>
@@ -3880,15 +3891,15 @@
       <c r="O102" s="18"/>
       <c r="P102" s="18"/>
     </row>
-    <row r="103" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F103" s="11">
-        <v>9.4444444444444442E-2</v>
-      </c>
-      <c r="G103" s="17" t="s">
-        <v>82</v>
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="I103" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J103" s="18"/>
       <c r="K103" s="18"/>
@@ -3898,15 +3909,15 @@
       <c r="O103" s="18"/>
       <c r="P103" s="18"/>
     </row>
-    <row r="104" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F104" s="11">
-        <v>0.1076388888888889</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>83</v>
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="I104" s="18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J104" s="18"/>
       <c r="K104" s="18"/>
@@ -3916,15 +3927,15 @@
       <c r="O104" s="18"/>
       <c r="P104" s="18"/>
     </row>
-    <row r="105" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F105" s="11">
-        <v>0.12083333333333333</v>
-      </c>
-      <c r="G105" s="12" t="s">
-        <v>79</v>
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="I105" s="18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J105" s="18"/>
       <c r="K105" s="18"/>
@@ -3934,15 +3945,15 @@
       <c r="O105" s="18"/>
       <c r="P105" s="18"/>
     </row>
-    <row r="106" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F106" s="11">
-        <v>0.13263888888888889</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>84</v>
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="I106" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J106" s="18"/>
       <c r="K106" s="18"/>
@@ -3952,15 +3963,15 @@
       <c r="O106" s="18"/>
       <c r="P106" s="18"/>
     </row>
-    <row r="107" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F107" s="11">
-        <v>0.14652777777777778</v>
-      </c>
-      <c r="G107" s="16" t="s">
-        <v>78</v>
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="I107" s="18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J107" s="18"/>
       <c r="K107" s="18"/>
@@ -3970,15 +3981,15 @@
       <c r="O107" s="18"/>
       <c r="P107" s="18"/>
     </row>
-    <row r="108" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F108" s="11">
-        <v>0.15902777777777777</v>
-      </c>
-      <c r="G108" s="17" t="s">
-        <v>85</v>
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="I108" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J108" s="18"/>
       <c r="K108" s="18"/>
@@ -3988,15 +3999,15 @@
       <c r="O108" s="18"/>
       <c r="P108" s="18"/>
     </row>
-    <row r="109" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F109" s="11">
-        <v>0.17152777777777775</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>86</v>
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="I109" s="18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J109" s="18"/>
       <c r="K109" s="18"/>
@@ -4006,64 +4017,64 @@
       <c r="O109" s="18"/>
       <c r="P109" s="18"/>
     </row>
-    <row r="110" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F110" s="11">
+        <v>0.17152777777777775</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I110" s="18">
+        <v>3</v>
+      </c>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="18"/>
+      <c r="N110" s="18"/>
+      <c r="O110" s="18"/>
+      <c r="P110" s="18"/>
+    </row>
+    <row r="111" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F111" s="11">
         <v>0.18680555555555556</v>
       </c>
-      <c r="G110"/>
-    </row>
-    <row r="112" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E112" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
+      <c r="G111"/>
     </row>
     <row r="113" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E113" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="E113" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
     </row>
     <row r="114" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F114" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F116" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>99</v>
+      <c r="E114" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F115" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F117" s="22">
-        <v>0</v>
-      </c>
-      <c r="G117" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I117" s="18">
-        <v>3</v>
-      </c>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="18"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
-      <c r="P117" s="18"/>
+      <c r="F117" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="118" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F118" s="22">
-        <v>2.2916666666666669E-2</v>
-      </c>
-      <c r="G118" s="13" t="s">
-        <v>76</v>
+        <v>0</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="I118" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J118" s="18"/>
       <c r="K118" s="18"/>
@@ -4075,13 +4086,13 @@
     </row>
     <row r="119" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F119" s="22">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="G119" s="14" t="s">
-        <v>77</v>
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="I119" s="18">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J119" s="18"/>
       <c r="K119" s="18"/>
@@ -4093,13 +4104,13 @@
     </row>
     <row r="120" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F120" s="22">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="G120" s="23" t="s">
-        <v>94</v>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="I120" s="18">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J120" s="18"/>
       <c r="K120" s="18"/>
@@ -4111,13 +4122,13 @@
     </row>
     <row r="121" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F121" s="22">
-        <v>7.013888888888889E-2</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>79</v>
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="G121" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="I121" s="18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J121" s="18"/>
       <c r="K121" s="18"/>
@@ -4129,13 +4140,13 @@
     </row>
     <row r="122" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F122" s="22">
-        <v>9.2361111111111116E-2</v>
-      </c>
-      <c r="G122" s="13" t="s">
-        <v>80</v>
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="I122" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J122" s="18"/>
       <c r="K122" s="18"/>
@@ -4147,13 +4158,13 @@
     </row>
     <row r="123" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F123" s="22">
-        <v>0.10694444444444444</v>
-      </c>
-      <c r="G123" s="14" t="s">
-        <v>97</v>
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="I123" s="18">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J123" s="18"/>
       <c r="K123" s="18"/>
@@ -4165,13 +4176,13 @@
     </row>
     <row r="124" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F124" s="22">
-        <v>0.12291666666666667</v>
-      </c>
-      <c r="G124" s="23" t="s">
-        <v>98</v>
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="I124" s="18">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J124" s="18"/>
       <c r="K124" s="18"/>
@@ -4183,10 +4194,10 @@
     </row>
     <row r="125" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F125" s="22">
-        <v>0.13749999999999998</v>
-      </c>
-      <c r="G125" s="24" t="s">
-        <v>95</v>
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="G125" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="I125" s="18">
         <v>7</v>
@@ -4201,13 +4212,13 @@
     </row>
     <row r="126" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F126" s="22">
-        <v>0.15833333333333333</v>
-      </c>
-      <c r="G126" s="12" t="s">
-        <v>96</v>
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="G126" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="I126" s="18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J126" s="18"/>
       <c r="K126" s="18"/>
@@ -4218,7 +4229,15 @@
       <c r="P126" s="18"/>
     </row>
     <row r="127" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="I127" s="18"/>
+      <c r="F127" s="22">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I127" s="18">
+        <v>3</v>
+      </c>
       <c r="J127" s="18"/>
       <c r="K127" s="18"/>
       <c r="L127" s="18"/>
@@ -4247,13 +4266,23 @@
       <c r="O129" s="18"/>
       <c r="P129" s="18"/>
     </row>
+    <row r="130" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I130" s="18"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="18"/>
+      <c r="M130" s="18"/>
+      <c r="N130" s="18"/>
+      <c r="O130" s="18"/>
+      <c r="P130" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId1" display="葉月ゆら（twitter：@yura_hatuki）"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/JP/2_あとがき.xlsx
+++ b/JP/2_あとがき.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C89FFE-C5A9-41F5-B140-5727067228CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +46,6 @@
   </si>
   <si>
     <t>参考させていただいた諸々のコンテンツ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夢幻楽園ティエラ零式-残夢編4（以下略称当コンテンツ）の数多のスキル名、ギミック効果、あと全体の雰囲気などのインスピレーションは</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -461,10 +458,6 @@
     <t>（絶竜詩エスティニアンフェーズ）</t>
   </si>
   <si>
-    <t>どの塔が消えるのがランダムのことによって、このギミックは当コンテンツ一番難しいと思います</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ギミックごとの考え事：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -721,11 +714,19 @@
     <t>葉月ゆら（Twitter：@yura_hatuki）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>夢幻楽園ティエラ零式-残夢編4（以下は当コンテンツと略称）の数多のスキル名、ギミック効果、あと全体の雰囲気などのインスピレーションは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どの塔が消えるのがランダムのことによって、このギミックは当コンテンツの中で一番難しいと思います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -985,7 +986,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1024,7 +1025,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1056,7 +1056,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12246933221564292"/>
+          <c:y val="0.18942282498278701"/>
+          <c:w val="0.84822485883599508"/>
+          <c:h val="0.56809985774990268"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1073,7 +1083,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -1127,6 +1149,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-419E-4C89-B9EA-C4FE745C0356}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1136,6 +1163,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2040015920"/>
         <c:axId val="2040012656"/>
@@ -1421,7 +1449,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1468,7 +1496,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1517,7 +1544,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -1559,6 +1598,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1075-4280-B01F-C2D0A0FE9EA7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1568,6 +1612,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2040022448"/>
         <c:axId val="105550656"/>
@@ -2981,7 +3026,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3011,7 +3062,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3030,7 +3087,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3105,6 +3162,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3140,6 +3214,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3315,26 +3406,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="9.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
     <col min="5" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="12.25" style="3" customWidth="1"/>
-    <col min="11" max="12" width="9" style="3"/>
+    <col min="10" max="10" width="12.21875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3343,17 +3435,17 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="H3" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
@@ -3361,9 +3453,9 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -3372,7 +3464,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
@@ -3380,415 +3472,415 @@
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="3" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="3" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="3" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="3" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G25" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="6" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C30" s="3" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C31" s="3" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C32" s="3" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C34" s="3" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="19" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C35" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D36" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C37" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C40" s="19" t="s">
-        <v>30</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D41" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E42" s="3" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E43" s="3" t="s">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="19" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D44" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C46" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D47" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E49" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D50" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C52" s="19" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D48" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E49" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D50" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C52" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D53" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I54" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D55" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D57" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D58" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D57" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D58" s="3" t="s">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D59" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E59" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D61" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C63" s="19" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D59" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D61" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M61" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C63" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
     </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D64" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E65" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E66" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C68" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D69" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D70" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D71" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E72" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D70" s="3" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D74" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D76" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D71" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E72" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D74" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D76" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D78" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E79" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C86" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C87" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C86" s="3" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C87" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B88" s="3" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C92" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B91" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C92" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="E92" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E93" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G93" s="10"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F94" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F96" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="97" spans="6:16" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F97" s="11">
         <v>0</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I97" s="18">
         <v>3</v>
@@ -3801,12 +3893,12 @@
       <c r="O97" s="18"/>
       <c r="P97" s="18"/>
     </row>
-    <row r="98" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F98" s="11">
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I98" s="18">
         <v>4</v>
@@ -3819,12 +3911,12 @@
       <c r="O98" s="18"/>
       <c r="P98" s="18"/>
     </row>
-    <row r="99" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F99" s="11">
         <v>2.9166666666666664E-2</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I99" s="18">
         <v>6</v>
@@ -3837,12 +3929,12 @@
       <c r="O99" s="18"/>
       <c r="P99" s="18"/>
     </row>
-    <row r="100" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F100" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I100" s="18">
         <v>9</v>
@@ -3855,12 +3947,12 @@
       <c r="O100" s="18"/>
       <c r="P100" s="18"/>
     </row>
-    <row r="101" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F101" s="11">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I101" s="18">
         <v>3</v>
@@ -3873,12 +3965,12 @@
       <c r="O101" s="18"/>
       <c r="P101" s="18"/>
     </row>
-    <row r="102" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F102" s="11">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I102" s="18">
         <v>4</v>
@@ -3891,12 +3983,12 @@
       <c r="O102" s="18"/>
       <c r="P102" s="18"/>
     </row>
-    <row r="103" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F103" s="11">
         <v>8.1944444444444445E-2</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I103" s="18">
         <v>6</v>
@@ -3909,12 +4001,12 @@
       <c r="O103" s="18"/>
       <c r="P103" s="18"/>
     </row>
-    <row r="104" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F104" s="11">
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I104" s="18">
         <v>10</v>
@@ -3927,12 +4019,12 @@
       <c r="O104" s="18"/>
       <c r="P104" s="18"/>
     </row>
-    <row r="105" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F105" s="11">
         <v>0.1076388888888889</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I105" s="18">
         <v>7</v>
@@ -3945,12 +4037,12 @@
       <c r="O105" s="18"/>
       <c r="P105" s="18"/>
     </row>
-    <row r="106" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F106" s="11">
         <v>0.12083333333333333</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I106" s="18">
         <v>3</v>
@@ -3963,12 +4055,12 @@
       <c r="O106" s="18"/>
       <c r="P106" s="18"/>
     </row>
-    <row r="107" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F107" s="11">
         <v>0.13263888888888889</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I107" s="18">
         <v>6</v>
@@ -3981,12 +4073,12 @@
       <c r="O107" s="18"/>
       <c r="P107" s="18"/>
     </row>
-    <row r="108" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F108" s="11">
         <v>0.14652777777777778</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I108" s="18">
         <v>9</v>
@@ -3999,12 +4091,12 @@
       <c r="O108" s="18"/>
       <c r="P108" s="18"/>
     </row>
-    <row r="109" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F109" s="11">
         <v>0.15902777777777777</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I109" s="18">
         <v>10</v>
@@ -4017,12 +4109,12 @@
       <c r="O109" s="18"/>
       <c r="P109" s="18"/>
     </row>
-    <row r="110" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F110" s="11">
         <v>0.17152777777777775</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I110" s="18">
         <v>3</v>
@@ -4035,43 +4127,43 @@
       <c r="O110" s="18"/>
       <c r="P110" s="18"/>
     </row>
-    <row r="111" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F111" s="11">
         <v>0.18680555555555556</v>
       </c>
       <c r="G111"/>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F113" s="19"/>
       <c r="G113" s="19"/>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F115" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F115" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="117" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F117" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="118" spans="5:16" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F118" s="22">
         <v>0</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I118" s="18">
         <v>3</v>
@@ -4084,12 +4176,12 @@
       <c r="O118" s="18"/>
       <c r="P118" s="18"/>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F119" s="22">
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I119" s="18">
         <v>6</v>
@@ -4102,12 +4194,12 @@
       <c r="O119" s="18"/>
       <c r="P119" s="18"/>
     </row>
-    <row r="120" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F120" s="22">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I120" s="18">
         <v>6.5</v>
@@ -4120,12 +4212,12 @@
       <c r="O120" s="18"/>
       <c r="P120" s="18"/>
     </row>
-    <row r="121" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F121" s="22">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="G121" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I121" s="18">
         <v>7</v>
@@ -4138,12 +4230,12 @@
       <c r="O121" s="18"/>
       <c r="P121" s="18"/>
     </row>
-    <row r="122" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F122" s="22">
         <v>7.013888888888889E-2</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I122" s="18">
         <v>3</v>
@@ -4156,12 +4248,12 @@
       <c r="O122" s="18"/>
       <c r="P122" s="18"/>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F123" s="22">
         <v>9.2361111111111116E-2</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I123" s="18">
         <v>6</v>
@@ -4174,12 +4266,12 @@
       <c r="O123" s="18"/>
       <c r="P123" s="18"/>
     </row>
-    <row r="124" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F124" s="22">
         <v>0.10694444444444444</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I124" s="18">
         <v>6.5</v>
@@ -4192,12 +4284,12 @@
       <c r="O124" s="18"/>
       <c r="P124" s="18"/>
     </row>
-    <row r="125" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F125" s="22">
         <v>0.12291666666666667</v>
       </c>
       <c r="G125" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I125" s="18">
         <v>7</v>
@@ -4210,12 +4302,12 @@
       <c r="O125" s="18"/>
       <c r="P125" s="18"/>
     </row>
-    <row r="126" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F126" s="22">
         <v>0.13749999999999998</v>
       </c>
       <c r="G126" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I126" s="18">
         <v>7</v>
@@ -4228,12 +4320,12 @@
       <c r="O126" s="18"/>
       <c r="P126" s="18"/>
     </row>
-    <row r="127" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="F127" s="22">
         <v>0.15833333333333333</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I127" s="18">
         <v>3</v>
@@ -4246,7 +4338,7 @@
       <c r="O127" s="18"/>
       <c r="P127" s="18"/>
     </row>
-    <row r="128" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="5:16" x14ac:dyDescent="0.25">
       <c r="I128" s="18"/>
       <c r="J128" s="18"/>
       <c r="K128" s="18"/>
@@ -4256,7 +4348,7 @@
       <c r="O128" s="18"/>
       <c r="P128" s="18"/>
     </row>
-    <row r="129" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I129" s="18"/>
       <c r="J129" s="18"/>
       <c r="K129" s="18"/>
@@ -4266,7 +4358,7 @@
       <c r="O129" s="18"/>
       <c r="P129" s="18"/>
     </row>
-    <row r="130" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I130" s="18"/>
       <c r="J130" s="18"/>
       <c r="K130" s="18"/>
@@ -4282,7 +4374,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="葉月ゆら（twitter：@yura_hatuki）"/>
+    <hyperlink ref="H3" r:id="rId1" display="葉月ゆら（twitter：@yura_hatuki）" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
